--- a/Fixtures/sun 3.xlsx
+++ b/Fixtures/sun 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/77ffc11e60d84518/Documents/HCL Website/Fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\User files\Simon\Documents\GitHub\HalifaxCricketLeague\Fixtures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{67BF020A-97B8-45FA-BCC3-9B7AE444837A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{D0CA6B96-5467-443B-82EF-5461E42B748A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAE03718-7878-4A94-8FA2-8AD3916EF71A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -915,8 +915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K133"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67:C71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,7 +969,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B2" s="9">
         <v>43583</v>
@@ -986,7 +986,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B3" s="9">
         <v>43583</v>
@@ -1006,7 +1006,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B4" s="9">
         <v>43583</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B5" s="9">
         <v>43583</v>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B6" s="9">
         <v>43583</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B7" s="8">
         <v>43590</v>
@@ -1080,7 +1080,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B8" s="8">
         <v>43590</v>
@@ -1097,7 +1097,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B9" s="8">
         <v>43590</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B10" s="8">
         <v>43590</v>
@@ -1131,7 +1131,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B11" s="8">
         <v>43590</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B12" s="8">
         <v>43611</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B13" s="8">
         <v>43611</v>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B14" s="8">
         <v>43611</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B15" s="8">
         <v>43611</v>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B16" s="8">
         <v>43611</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B17" s="11">
         <v>43604</v>
@@ -1259,7 +1259,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B18" s="11">
         <v>43604</v>
@@ -1276,7 +1276,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B19" s="11">
         <v>43604</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B20" s="11">
         <v>43604</v>
@@ -1313,7 +1313,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B21" s="11">
         <v>43604</v>
@@ -1330,7 +1330,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B22" s="11">
         <v>43618</v>
@@ -1347,7 +1347,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B23" s="11">
         <v>43618</v>
@@ -1364,7 +1364,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B24" s="11">
         <v>43618</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B25" s="11">
         <v>43618</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B26" s="11">
         <v>43618</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B27" s="11">
         <v>43625</v>
@@ -1435,7 +1435,7 @@
     </row>
     <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B28" s="11">
         <v>43625</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B29" s="11">
         <v>43625</v>
@@ -1472,7 +1472,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B30" s="11">
         <v>43625</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B31" s="11">
         <v>43625</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B32" s="11">
         <v>43632</v>
@@ -1523,7 +1523,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B33" s="11">
         <v>43632</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B34" s="11">
         <v>43632</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B35" s="11">
         <v>43632</v>
@@ -1577,7 +1577,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B36" s="11">
         <v>43632</v>
@@ -1597,7 +1597,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B37" s="11">
         <v>43639</v>
@@ -1614,7 +1614,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B38" s="11">
         <v>43639</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B39" s="11">
         <v>43639</v>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B40" s="11">
         <v>43639</v>
@@ -1665,7 +1665,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B41" s="11">
         <v>43639</v>
@@ -1682,7 +1682,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B42" s="11">
         <v>43646</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B43" s="11">
         <v>43646</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B44" s="11">
         <v>43646</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B45" s="11">
         <v>43646</v>
@@ -1756,7 +1756,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B46" s="11">
         <v>43646</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B47" s="11">
         <v>43660</v>
@@ -1793,7 +1793,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B48" s="11">
         <v>43660</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B49" s="11">
         <v>43660</v>
@@ -1827,7 +1827,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B50" s="11">
         <v>43660</v>
@@ -1844,7 +1844,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B51" s="11">
         <v>43660</v>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B52" s="11">
         <v>43667</v>
@@ -1878,7 +1878,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B53" s="11">
         <v>43667</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B54" s="11">
         <v>43667</v>
@@ -1918,7 +1918,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B55" s="11">
         <v>43667</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B56" s="11">
         <v>43667</v>
@@ -1952,7 +1952,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B57" s="11">
         <v>43674</v>
@@ -1969,7 +1969,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B58" s="11">
         <v>43674</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B59" s="11">
         <v>43674</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B60" s="11">
         <v>43674</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B61" s="11">
         <v>43674</v>
@@ -2043,7 +2043,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B62" s="11">
         <v>43688</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B63" s="11">
         <v>43688</v>
@@ -2077,7 +2077,7 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B64" s="11">
         <v>43688</v>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B65" s="11">
         <v>43688</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B66" s="11">
         <v>43688</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B67" s="11">
         <v>43695</v>
@@ -2148,7 +2148,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B68" s="11">
         <v>43695</v>
@@ -2168,7 +2168,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B69" s="11">
         <v>43695</v>
@@ -2185,7 +2185,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B70" s="11">
         <v>43695</v>
@@ -2202,7 +2202,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B71" s="11">
         <v>43695</v>
@@ -2222,7 +2222,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B72" s="11">
         <v>43702</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B73" s="11">
         <v>43702</v>
@@ -2256,7 +2256,7 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B74" s="11">
         <v>43702</v>
@@ -2273,7 +2273,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B75" s="11">
         <v>43702</v>
@@ -2293,7 +2293,7 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B76" s="11">
         <v>43702</v>
@@ -2313,7 +2313,7 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B77" s="11">
         <v>43709</v>
@@ -2330,7 +2330,7 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B78" s="11">
         <v>43709</v>
@@ -2350,7 +2350,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B79" s="11">
         <v>43709</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B80" s="11">
         <v>43709</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B81" s="11">
         <v>43709</v>
@@ -2401,7 +2401,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B82" s="11">
         <v>43716</v>
@@ -2418,7 +2418,7 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B83" s="11">
         <v>43716</v>
@@ -2438,7 +2438,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B84" s="11">
         <v>43716</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B85" s="11">
         <v>43716</v>
@@ -2475,7 +2475,7 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B86" s="11">
         <v>43716</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B87" s="11">
         <v>43723</v>
@@ -2512,7 +2512,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B88" s="11">
         <v>43723</v>
@@ -2529,7 +2529,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B89" s="11">
         <v>43723</v>
@@ -2546,7 +2546,7 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B90" s="11">
         <v>43723</v>
@@ -2563,7 +2563,7 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
-        <v>83835</v>
+        <v>89976</v>
       </c>
       <c r="B91" s="11">
         <v>43723</v>
